--- a/WebLink.xlsx
+++ b/WebLink.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\J2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>http://codecanyon.net/item/beta-splash-page-email-signup-form/55646</t>
   </si>
@@ -34,9 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.thestylejunkies.com/</t>
-  </si>
-  <si>
     <t>List</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -64,9 +66,6 @@
   <si>
     <t>Sign4</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.purepleasuredesign.com/</t>
   </si>
   <si>
     <t>http://www.purepleasuredesign.com/kontakt/</t>
@@ -95,9 +94,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.somewhat.cc/</t>
-  </si>
-  <si>
     <t>https://app.youneedabudget.com/users/login</t>
   </si>
   <si>
@@ -149,12 +145,6 @@
   </si>
   <si>
     <t>http://www.speaker.ca/</t>
-  </si>
-  <si>
-    <t>http://www.letstravelsomewhere.com/</t>
-  </si>
-  <si>
-    <t>http://www.thebagelbars.com/</t>
   </si>
   <si>
     <t>Major1</t>
@@ -971,6 +961,30 @@
       </rPr>
       <t>、唯一網頁版、手機差異度不大</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.thestylejunkies.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.purepleasuredesign.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://foodsense.is/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.somewhat.cc/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.letstravelsomewhere.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.thebagelbars.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +992,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1012,6 +1026,14 @@
       <name val="微軟正黑體 Light"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1052,10 +1074,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1074,9 +1097,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1111,6 +1138,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1159,7 +1189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1194,7 +1224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1403,10 +1433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.08984375" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1419,7 +1450,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1428,84 +1459,93 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1533,68 +1573,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1606,6 +1646,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表3"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1623,7 +1664,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1634,79 +1675,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1724,6 +1765,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表4"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1740,7 +1782,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1751,13 +1793,13 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
